--- a/biology/Zoologie/Diplulmaris_antarctica/Diplulmaris_antarctica.xlsx
+++ b/biology/Zoologie/Diplulmaris_antarctica/Diplulmaris_antarctica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplulmaris antarctica est une espèce de méduse de la famille des Ulmaridae. Elle vit dans l'océan Austral, près de la surface, dans les eaux du plateau continental autour de l'Antarctique.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut atteindre quatre centimètres de diamètre[1]. Elle possède de seize à quarante-huit tentacules blanches, comprimées latéralement. Son gastroderme et ses bras buccaux sont de couleur rouge-orangé.
-Diplulmaris antarctica est habituellement infestée par des amphipodes (Hyperiella dilatata), principalement des femelles et des juvéniles, qui vivent accrochés sur le sommet de l'ombrelle[2], formant des points blancs sur sa surface. Ils ne semblent pas se nourrir de leur hôte[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut atteindre quatre centimètres de diamètre. Elle possède de seize à quarante-huit tentacules blanches, comprimées latéralement. Son gastroderme et ses bras buccaux sont de couleur rouge-orangé.
+Diplulmaris antarctica est habituellement infestée par des amphipodes (Hyperiella dilatata), principalement des femelles et des juvéniles, qui vivent accrochés sur le sommet de l'ombrelle, formant des points blancs sur sa surface. Ils ne semblent pas se nourrir de leur hôte.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplulmaris antarctica se nourrit de copépodes, de larves de krill, de Méduse, de cténophores, et de mollusques ptéropodes comme Clione antarctica[2] et Limacina antarctica (ou Limacina helicina)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplulmaris antarctica se nourrit de copépodes, de larves de krill, de Méduse, de cténophores, et de mollusques ptéropodes comme Clione antarctica et Limacina antarctica (ou Limacina helicina).
 </t>
         </is>
       </c>
